--- a/DataBase/Consumos/consumos_SAENZ_PEÑA_18_01_2026.xlsx
+++ b/DataBase/Consumos/consumos_SAENZ_PEÑA_18_01_2026.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
-  <x:si>
-    <x:t>Desde: 01/01/2026 Hasta: 17/01/2026</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="261">
+  <x:si>
+    <x:t>Desde: 01/01/2026 Hasta: 18/01/2026</x:t>
   </x:si>
   <x:si>
     <x:t>Sucursales: SAENZ PEÑA</x:t>
@@ -101,6 +101,9 @@
   </x:si>
   <x:si>
     <x:t>FERNET CON COCA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GANCIA</x:t>
   </x:si>
   <x:si>
     <x:t>LUIGI BOSCA</x:t>
@@ -857,8 +860,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:E250" totalsRowShown="0">
-  <x:autoFilter ref="A4:E250"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:E251" totalsRowShown="0">
+  <x:autoFilter ref="A4:E251"/>
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="FAMILIA"/>
     <x:tableColumn id="2" name="CODIGO"/>
@@ -1158,7 +1161,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E250"/>
+  <x:dimension ref="A1:E251"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1230,10 +1233,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>1376</x:v>
+        <x:v>1501</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>4886800</x:v>
+        <x:v>5361800</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -1247,10 +1250,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>536</x:v>
+        <x:v>581</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>1741200</x:v>
+        <x:v>1903200</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -1264,10 +1267,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>174600</x:v>
+        <x:v>184300</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -1281,10 +1284,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>45000</x:v>
+        <x:v>54000</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
@@ -1315,10 +1318,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>451500</x:v>
+        <x:v>493500</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -1332,10 +1335,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>166600</x:v>
+        <x:v>225400</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -1349,10 +1352,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>260000</x:v>
+        <x:v>286000</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -1366,10 +1369,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>305500</x:v>
+        <x:v>329000</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
@@ -1383,10 +1386,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D15" s="0" t="n">
-        <x:v>202</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>2055000</x:v>
+        <x:v>2363000</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
@@ -1400,10 +1403,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D16" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>509000</x:v>
+        <x:v>589000</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
@@ -1417,10 +1420,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D17" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>252000</x:v>
+        <x:v>280000</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
@@ -1519,10 +1522,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
-        <x:v>24000</x:v>
+        <x:v>48000</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
@@ -1536,10 +1539,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>130500</x:v>
+        <x:v>139200</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5">
@@ -1547,7 +1550,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B25" s="0" t="n">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
         <x:v>29</x:v>
@@ -1556,7 +1559,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>137500</x:v>
+        <x:v>40000</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5">
@@ -1564,16 +1567,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B26" s="0" t="n">
-        <x:v>164</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>156000</x:v>
+        <x:v>137500</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:5">
@@ -1581,16 +1584,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B27" s="0" t="n">
-        <x:v>168</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="D27" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>320000</x:v>
+        <x:v>195000</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:5">
@@ -1598,16 +1601,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B28" s="0" t="n">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="D28" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>351000</x:v>
+        <x:v>368000</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:5">
@@ -1615,16 +1618,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B29" s="0" t="n">
-        <x:v>171</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="D29" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>28000</x:v>
+        <x:v>377000</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:5">
@@ -1632,7 +1635,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B30" s="0" t="n">
-        <x:v>172</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
         <x:v>34</x:v>
@@ -1641,7 +1644,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E30" s="0" t="n">
-        <x:v>20000</x:v>
+        <x:v>28000</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:5">
@@ -1649,16 +1652,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B31" s="0" t="n">
-        <x:v>174</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="D31" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E31" s="0" t="n">
-        <x:v>57500</x:v>
+        <x:v>40000</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:5">
@@ -1666,16 +1669,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B32" s="0" t="n">
-        <x:v>365</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="D32" s="0" t="n">
-        <x:v>155</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>1003500</x:v>
+        <x:v>57500</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:5">
@@ -1683,16 +1686,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B33" s="0" t="n">
-        <x:v>741</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="D33" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>39000</x:v>
+        <x:v>1107000</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:5">
@@ -1700,16 +1703,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B34" s="0" t="n">
-        <x:v>1456</x:v>
+        <x:v>741</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="D34" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>268800</x:v>
+        <x:v>65000</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:5">
@@ -1717,16 +1720,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B35" s="0" t="n">
-        <x:v>5018</x:v>
+        <x:v>1456</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D35" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E35" s="0" t="n">
-        <x:v>44000</x:v>
+        <x:v>300800</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:5">
@@ -1734,7 +1737,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B36" s="0" t="n">
-        <x:v>5215</x:v>
+        <x:v>5018</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
         <x:v>40</x:v>
@@ -1743,236 +1746,236 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>40000</x:v>
+        <x:v>44000</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:5">
       <x:c r="A37" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="n">
+        <x:v>5215</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="B37" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C37" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
       <x:c r="D37" s="0" t="n">
-        <x:v>173</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>518700</x:v>
+        <x:v>40000</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:5">
       <x:c r="A38" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B38" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
       <x:c r="D38" s="0" t="n">
-        <x:v>305</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>1067000</x:v>
+        <x:v>557700</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:5">
       <x:c r="A39" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B39" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="D39" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>113400</x:v>
+        <x:v>1119500</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:5">
       <x:c r="A40" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B40" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="D40" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>560500</x:v>
+        <x:v>117600</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:5">
       <x:c r="A41" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B41" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="D41" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>29500</x:v>
+        <x:v>631600</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:5">
       <x:c r="A42" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B42" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
       <x:c r="D42" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>3500</x:v>
+        <x:v>29500</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:5">
       <x:c r="A43" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B43" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="D43" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>40500</x:v>
+        <x:v>7000</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:5">
       <x:c r="A44" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B44" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="D44" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>26700</x:v>
+        <x:v>40500</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:5">
       <x:c r="A45" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B45" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="D45" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
-        <x:v>57500</x:v>
+        <x:v>26700</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:5">
       <x:c r="A46" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B46" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
       <x:c r="D46" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>44800</x:v>
+        <x:v>60000</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:5">
       <x:c r="A47" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B47" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="D47" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>192000</x:v>
+        <x:v>44800</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:5">
       <x:c r="A48" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B48" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="D48" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>5900</x:v>
+        <x:v>208000</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:5">
       <x:c r="A49" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B49" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
       <x:c r="D49" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>19800</x:v>
+        <x:v>5900</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:5">
       <x:c r="A50" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B50" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
         <x:v>55</x:v>
@@ -1981,1341 +1984,1341 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>17800</x:v>
+        <x:v>19800</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:5">
       <x:c r="A51" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B51" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="D51" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E51" s="0" t="n">
-        <x:v>306000</x:v>
+        <x:v>17800</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:5">
       <x:c r="A52" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B52" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
       <x:c r="D52" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E52" s="0" t="n">
-        <x:v>215000</x:v>
+        <x:v>315900</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:5">
       <x:c r="A53" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B53" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
       <x:c r="D53" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E53" s="0" t="n">
-        <x:v>12000</x:v>
+        <x:v>232500</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:5">
       <x:c r="A54" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B54" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="D54" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E54" s="0" t="n">
-        <x:v>3400</x:v>
+        <x:v>12000</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:5">
       <x:c r="A55" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B55" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
       <x:c r="D55" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E55" s="0" t="n">
-        <x:v>130000</x:v>
+        <x:v>3400</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:5">
       <x:c r="A56" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B56" s="0" t="n">
-        <x:v>1000</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
       <x:c r="D56" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E56" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>143000</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:5">
       <x:c r="A57" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="B57" s="0" t="n">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C57" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="D57" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E57" s="0" t="n">
-        <x:v>27500</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:5">
       <x:c r="A58" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B58" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
         <x:v>64</x:v>
       </x:c>
       <x:c r="D58" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E58" s="0" t="n">
-        <x:v>13000</x:v>
+        <x:v>27500</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:5">
       <x:c r="A59" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B59" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="D59" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E59" s="0" t="n">
-        <x:v>438500</x:v>
+        <x:v>13000</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:5">
       <x:c r="A60" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B60" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
         <x:v>66</x:v>
       </x:c>
       <x:c r="D60" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E60" s="0" t="n">
-        <x:v>261000</x:v>
+        <x:v>438500</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:5">
       <x:c r="A61" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B61" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
         <x:v>67</x:v>
       </x:c>
       <x:c r="D61" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>58000</x:v>
+        <x:v>275500</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:5">
       <x:c r="A62" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B62" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
         <x:v>68</x:v>
       </x:c>
       <x:c r="D62" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>35000</x:v>
+        <x:v>72500</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:5">
       <x:c r="A63" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B63" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
         <x:v>69</x:v>
       </x:c>
       <x:c r="D63" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>60000</x:v>
+        <x:v>35000</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:5">
       <x:c r="A64" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B64" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
         <x:v>70</x:v>
       </x:c>
       <x:c r="D64" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>137500</x:v>
+        <x:v>65500</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:5">
       <x:c r="A65" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B65" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="D65" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>62500</x:v>
+        <x:v>154000</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:5">
       <x:c r="A66" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B66" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
         <x:v>72</x:v>
       </x:c>
       <x:c r="D66" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>146500</x:v>
+        <x:v>75000</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:5">
       <x:c r="A67" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B67" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
         <x:v>73</x:v>
       </x:c>
       <x:c r="D67" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>128000</x:v>
+        <x:v>156000</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:5">
       <x:c r="A68" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B68" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
         <x:v>74</x:v>
       </x:c>
       <x:c r="D68" s="0" t="n">
-        <x:v>146</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E68" s="0" t="n">
-        <x:v>1905500</x:v>
+        <x:v>128000</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:5">
       <x:c r="A69" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B69" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="D69" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E69" s="0" t="n">
-        <x:v>101000</x:v>
+        <x:v>2000000</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:5">
       <x:c r="A70" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B70" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
       <x:c r="D70" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>207000</x:v>
+        <x:v>118000</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:5">
       <x:c r="A71" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B71" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
         <x:v>77</x:v>
       </x:c>
       <x:c r="D71" s="0" t="n">
-        <x:v>231</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>3131500</x:v>
+        <x:v>220000</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:5">
       <x:c r="A72" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B72" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
         <x:v>78</x:v>
       </x:c>
       <x:c r="D72" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>117000</x:v>
+        <x:v>3369500</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:5">
       <x:c r="A73" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B73" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="D73" s="0" t="n">
-        <x:v>346</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>5563000</x:v>
+        <x:v>132500</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:5">
       <x:c r="A74" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B74" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
         <x:v>80</x:v>
       </x:c>
       <x:c r="D74" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="E74" s="0" t="n">
-        <x:v>130000</x:v>
+        <x:v>6107500</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:5">
       <x:c r="A75" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B75" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
         <x:v>81</x:v>
       </x:c>
       <x:c r="D75" s="0" t="n">
-        <x:v>137</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E75" s="0" t="n">
-        <x:v>1991500</x:v>
+        <x:v>130000</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:5">
       <x:c r="A76" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B76" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
         <x:v>82</x:v>
       </x:c>
       <x:c r="D76" s="0" t="n">
-        <x:v>121</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>2068500</x:v>
+        <x:v>2141500</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:5">
       <x:c r="A77" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B77" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
         <x:v>83</x:v>
       </x:c>
       <x:c r="D77" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>706000</x:v>
+        <x:v>2243500</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:5">
       <x:c r="A78" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B78" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
         <x:v>84</x:v>
       </x:c>
       <x:c r="D78" s="0" t="n">
-        <x:v>320</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E78" s="0" t="n">
-        <x:v>2346400</x:v>
+        <x:v>784000</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:5">
       <x:c r="A79" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B79" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C79" s="0" t="s">
         <x:v>85</x:v>
       </x:c>
       <x:c r="D79" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>362000</x:v>
+        <x:v>2746400</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:5">
       <x:c r="A80" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B80" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
         <x:v>86</x:v>
       </x:c>
       <x:c r="D80" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E80" s="0" t="n">
-        <x:v>360000</x:v>
+        <x:v>428500</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:5">
       <x:c r="A81" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B81" s="0" t="n">
         <x:v>62</x:v>
-      </x:c>
-      <x:c r="B81" s="0" t="n">
-        <x:v>63</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
         <x:v>87</x:v>
       </x:c>
       <x:c r="D81" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E81" s="0" t="n">
-        <x:v>78500</x:v>
+        <x:v>378000</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:5">
       <x:c r="A82" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B82" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C82" s="0" t="s">
         <x:v>88</x:v>
       </x:c>
       <x:c r="D82" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E82" s="0" t="n">
-        <x:v>64000</x:v>
+        <x:v>98500</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:5">
       <x:c r="A83" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B83" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C83" s="0" t="s">
         <x:v>89</x:v>
       </x:c>
       <x:c r="D83" s="0" t="n">
-        <x:v>170</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E83" s="0" t="n">
-        <x:v>1243200</x:v>
+        <x:v>64000</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:5">
       <x:c r="A84" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B84" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C84" s="0" t="s">
         <x:v>90</x:v>
       </x:c>
       <x:c r="D84" s="0" t="n">
-        <x:v>114</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E84" s="0" t="n">
-        <x:v>984000</x:v>
+        <x:v>1435200</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:5">
       <x:c r="A85" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B85" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C85" s="0" t="s">
         <x:v>91</x:v>
       </x:c>
       <x:c r="D85" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E85" s="0" t="n">
-        <x:v>931500</x:v>
+        <x:v>1060000</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:5">
       <x:c r="A86" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B86" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C86" s="0" t="s">
         <x:v>92</x:v>
       </x:c>
       <x:c r="D86" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E86" s="0" t="n">
-        <x:v>690000</x:v>
+        <x:v>1115500</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:5">
       <x:c r="A87" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B87" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C87" s="0" t="s">
         <x:v>93</x:v>
       </x:c>
       <x:c r="D87" s="0" t="n">
-        <x:v>88</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E87" s="0" t="n">
-        <x:v>968000</x:v>
+        <x:v>782000</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:5">
       <x:c r="A88" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B88" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C88" s="0" t="s">
         <x:v>94</x:v>
       </x:c>
       <x:c r="D88" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>483000</x:v>
+        <x:v>1056000</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:5">
       <x:c r="A89" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B89" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
         <x:v>95</x:v>
       </x:c>
       <x:c r="D89" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>192000</x:v>
+        <x:v>563500</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:5">
       <x:c r="A90" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B90" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C90" s="0" t="s">
         <x:v>96</x:v>
       </x:c>
       <x:c r="D90" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E90" s="0" t="n">
-        <x:v>410000</x:v>
+        <x:v>214500</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:5">
       <x:c r="A91" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B91" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
         <x:v>97</x:v>
       </x:c>
       <x:c r="D91" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E91" s="0" t="n">
-        <x:v>178400</x:v>
+        <x:v>440000</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:5">
       <x:c r="A92" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B92" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
         <x:v>98</x:v>
       </x:c>
       <x:c r="D92" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E92" s="0" t="n">
-        <x:v>26000</x:v>
+        <x:v>178400</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:5">
       <x:c r="A93" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B93" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
       <x:c r="D93" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E93" s="0" t="n">
-        <x:v>186000</x:v>
+        <x:v>26000</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:5">
       <x:c r="A94" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B94" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
         <x:v>100</x:v>
       </x:c>
       <x:c r="D94" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E94" s="0" t="n">
-        <x:v>402000</x:v>
+        <x:v>198000</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:5">
       <x:c r="A95" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B95" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
         <x:v>101</x:v>
       </x:c>
       <x:c r="D95" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E95" s="0" t="n">
-        <x:v>383400</x:v>
+        <x:v>473500</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:5">
       <x:c r="A96" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B96" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
         <x:v>102</x:v>
       </x:c>
       <x:c r="D96" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E96" s="0" t="n">
-        <x:v>495000</x:v>
+        <x:v>401400</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:5">
       <x:c r="A97" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B97" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C97" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
       <x:c r="D97" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E97" s="0" t="n">
-        <x:v>347800</x:v>
+        <x:v>583000</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:5">
       <x:c r="A98" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B98" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C98" s="0" t="s">
         <x:v>104</x:v>
       </x:c>
       <x:c r="D98" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E98" s="0" t="n">
-        <x:v>32000</x:v>
+        <x:v>399600</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:5">
       <x:c r="A99" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B99" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
         <x:v>105</x:v>
       </x:c>
       <x:c r="D99" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E99" s="0" t="n">
-        <x:v>57000</x:v>
+        <x:v>32000</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:5">
       <x:c r="A100" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B100" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
       <x:c r="D100" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E100" s="0" t="n">
-        <x:v>49500</x:v>
+        <x:v>57000</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:5">
       <x:c r="A101" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B101" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
         <x:v>107</x:v>
       </x:c>
       <x:c r="D101" s="0" t="n">
-        <x:v>294</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E101" s="0" t="n">
-        <x:v>917100</x:v>
+        <x:v>49500</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:5">
       <x:c r="A102" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B102" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C102" s="0" t="s">
         <x:v>108</x:v>
       </x:c>
       <x:c r="D102" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="E102" s="0" t="n">
-        <x:v>80700</x:v>
+        <x:v>1077000</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:5">
       <x:c r="A103" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B103" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C103" s="0" t="s">
         <x:v>109</x:v>
       </x:c>
       <x:c r="D103" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E103" s="0" t="n">
-        <x:v>260700</x:v>
+        <x:v>115800</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:5">
       <x:c r="A104" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B104" s="0" t="n">
-        <x:v>89</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
         <x:v>110</x:v>
       </x:c>
       <x:c r="D104" s="0" t="n">
-        <x:v>105</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E104" s="0" t="n">
-        <x:v>324000</x:v>
+        <x:v>264600</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:5">
       <x:c r="A105" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B105" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C105" s="0" t="s">
         <x:v>111</x:v>
       </x:c>
       <x:c r="D105" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E105" s="0" t="n">
-        <x:v>1310000</x:v>
+        <x:v>324000</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:5">
       <x:c r="A106" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B106" s="0" t="n">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C106" s="0" t="s">
         <x:v>112</x:v>
       </x:c>
       <x:c r="D106" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E106" s="0" t="n">
-        <x:v>228000</x:v>
+        <x:v>1505000</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:5">
       <x:c r="A107" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B107" s="0" t="n">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C107" s="0" t="s">
         <x:v>113</x:v>
       </x:c>
       <x:c r="D107" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E107" s="0" t="n">
-        <x:v>582000</x:v>
+        <x:v>247500</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:5">
       <x:c r="A108" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B108" s="0" t="n">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C108" s="0" t="s">
         <x:v>114</x:v>
       </x:c>
       <x:c r="D108" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E108" s="0" t="n">
-        <x:v>329500</x:v>
+        <x:v>670000</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:5">
       <x:c r="A109" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B109" s="0" t="n">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C109" s="0" t="s">
         <x:v>115</x:v>
       </x:c>
       <x:c r="D109" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E109" s="0" t="n">
-        <x:v>130000</x:v>
+        <x:v>353500</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:5">
       <x:c r="A110" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B110" s="0" t="n">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C110" s="0" t="s">
         <x:v>116</x:v>
       </x:c>
       <x:c r="D110" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E110" s="0" t="n">
-        <x:v>71000</x:v>
+        <x:v>174000</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:5">
       <x:c r="A111" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B111" s="0" t="n">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C111" s="0" t="s">
         <x:v>117</x:v>
       </x:c>
       <x:c r="D111" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E111" s="0" t="n">
-        <x:v>560000</x:v>
+        <x:v>95000</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:5">
       <x:c r="A112" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B112" s="0" t="n">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C112" s="0" t="s">
         <x:v>118</x:v>
       </x:c>
       <x:c r="D112" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E112" s="0" t="n">
-        <x:v>145500</x:v>
+        <x:v>574000</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:5">
       <x:c r="A113" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B113" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C113" s="0" t="s">
         <x:v>119</x:v>
       </x:c>
       <x:c r="D113" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E113" s="0" t="n">
-        <x:v>104800</x:v>
+        <x:v>184000</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:5">
       <x:c r="A114" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B114" s="0" t="n">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C114" s="0" t="s">
         <x:v>120</x:v>
       </x:c>
       <x:c r="D114" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E114" s="0" t="n">
-        <x:v>50500</x:v>
+        <x:v>120800</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:5">
       <x:c r="A115" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B115" s="0" t="n">
-        <x:v>103</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C115" s="0" t="s">
         <x:v>121</x:v>
       </x:c>
       <x:c r="D115" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E115" s="0" t="n">
-        <x:v>189000</x:v>
+        <x:v>50500</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:5">
       <x:c r="A116" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B116" s="0" t="n">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
         <x:v>122</x:v>
       </x:c>
       <x:c r="D116" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E116" s="0" t="n">
-        <x:v>81000</x:v>
+        <x:v>189000</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:5">
       <x:c r="A117" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B117" s="0" t="n">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C117" s="0" t="s">
         <x:v>123</x:v>
       </x:c>
       <x:c r="D117" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E117" s="0" t="n">
-        <x:v>27000</x:v>
+        <x:v>94500</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:5">
       <x:c r="A118" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B118" s="0" t="n">
-        <x:v>108</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
         <x:v>124</x:v>
       </x:c>
       <x:c r="D118" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E118" s="0" t="n">
-        <x:v>365500</x:v>
+        <x:v>54000</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:5">
       <x:c r="A119" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B119" s="0" t="n">
-        <x:v>122</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
         <x:v>125</x:v>
       </x:c>
       <x:c r="D119" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E119" s="0" t="n">
-        <x:v>35300</x:v>
+        <x:v>433500</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:5">
       <x:c r="A120" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B120" s="0" t="n">
-        <x:v>134</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C120" s="0" t="s">
         <x:v>126</x:v>
       </x:c>
       <x:c r="D120" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E120" s="0" t="n">
-        <x:v>335000</x:v>
+        <x:v>35300</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:5">
       <x:c r="A121" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B121" s="0" t="n">
-        <x:v>139</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
         <x:v>127</x:v>
       </x:c>
       <x:c r="D121" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E121" s="0" t="n">
-        <x:v>768000</x:v>
+        <x:v>335000</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:5">
       <x:c r="A122" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B122" s="0" t="n">
-        <x:v>170</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
         <x:v>128</x:v>
       </x:c>
       <x:c r="D122" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E122" s="0" t="n">
-        <x:v>75000</x:v>
+        <x:v>814500</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:5">
       <x:c r="A123" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B123" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
         <x:v>129</x:v>
       </x:c>
       <x:c r="D123" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E123" s="0" t="n">
-        <x:v>223000</x:v>
+        <x:v>112500</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:5">
       <x:c r="A124" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B124" s="0" t="n">
-        <x:v>216</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C124" s="0" t="s">
         <x:v>130</x:v>
       </x:c>
       <x:c r="D124" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E124" s="0" t="n">
-        <x:v>332300</x:v>
+        <x:v>253000</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:5">
       <x:c r="A125" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B125" s="0" t="n">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
         <x:v>131</x:v>
       </x:c>
       <x:c r="D125" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E125" s="0" t="n">
-        <x:v>352200</x:v>
+        <x:v>392000</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:5">
       <x:c r="A126" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B126" s="0" t="n">
-        <x:v>227</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="C126" s="0" t="s">
         <x:v>132</x:v>
       </x:c>
       <x:c r="D126" s="0" t="n">
-        <x:v>156</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E126" s="0" t="n">
-        <x:v>2274500</x:v>
+        <x:v>392000</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:5">
       <x:c r="A127" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B127" s="0" t="n">
-        <x:v>234</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
       <x:c r="D127" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E127" s="0" t="n">
-        <x:v>276000</x:v>
+        <x:v>2484500</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:5">
       <x:c r="A128" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B128" s="0" t="n">
-        <x:v>235</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="C128" s="0" t="s">
         <x:v>134</x:v>
       </x:c>
       <x:c r="D128" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E128" s="0" t="n">
-        <x:v>36500</x:v>
+        <x:v>310500</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:5">
       <x:c r="A129" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B129" s="0" t="n">
-        <x:v>237</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="C129" s="0" t="s">
         <x:v>135</x:v>
@@ -3324,168 +3327,168 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E129" s="0" t="n">
-        <x:v>37500</x:v>
+        <x:v>36500</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:5">
       <x:c r="A130" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B130" s="0" t="n">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
         <x:v>136</x:v>
       </x:c>
       <x:c r="D130" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E130" s="0" t="n">
-        <x:v>172500</x:v>
+        <x:v>37500</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:5">
       <x:c r="A131" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B131" s="0" t="n">
-        <x:v>242</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="C131" s="0" t="s">
         <x:v>137</x:v>
       </x:c>
       <x:c r="D131" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E131" s="0" t="n">
-        <x:v>5000</x:v>
+        <x:v>172500</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:5">
       <x:c r="A132" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B132" s="0" t="n">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C132" s="0" t="s">
         <x:v>138</x:v>
       </x:c>
       <x:c r="D132" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E132" s="0" t="n">
-        <x:v>99000</x:v>
+        <x:v>5000</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:5">
       <x:c r="A133" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B133" s="0" t="n">
-        <x:v>250</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="C133" s="0" t="s">
         <x:v>139</x:v>
       </x:c>
       <x:c r="D133" s="0" t="n">
-        <x:v>92</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E133" s="0" t="n">
-        <x:v>460000</x:v>
+        <x:v>99000</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:5">
       <x:c r="A134" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B134" s="0" t="n">
-        <x:v>251</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="C134" s="0" t="s">
         <x:v>140</x:v>
       </x:c>
       <x:c r="D134" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E134" s="0" t="n">
-        <x:v>200100</x:v>
+        <x:v>525000</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:5">
       <x:c r="A135" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B135" s="0" t="n">
-        <x:v>252</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C135" s="0" t="s">
         <x:v>141</x:v>
       </x:c>
       <x:c r="D135" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E135" s="0" t="n">
-        <x:v>300000</x:v>
+        <x:v>207000</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:5">
       <x:c r="A136" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B136" s="0" t="n">
-        <x:v>253</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="C136" s="0" t="s">
         <x:v>142</x:v>
       </x:c>
       <x:c r="D136" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E136" s="0" t="n">
-        <x:v>34000</x:v>
+        <x:v>325000</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:5">
       <x:c r="A137" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B137" s="0" t="n">
-        <x:v>254</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="C137" s="0" t="s">
         <x:v>143</x:v>
       </x:c>
       <x:c r="D137" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E137" s="0" t="n">
-        <x:v>184000</x:v>
+        <x:v>34000</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:5">
       <x:c r="A138" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B138" s="0" t="n">
-        <x:v>255</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="C138" s="0" t="s">
         <x:v>144</x:v>
       </x:c>
       <x:c r="D138" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E138" s="0" t="n">
-        <x:v>88400</x:v>
+        <x:v>224000</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:5">
       <x:c r="A139" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B139" s="0" t="n">
-        <x:v>256</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="C139" s="0" t="s">
         <x:v>145</x:v>
@@ -3499,401 +3502,401 @@
     </x:row>
     <x:row r="140" spans="1:5">
       <x:c r="A140" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B140" s="0" t="n">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="C140" s="0" t="s">
         <x:v>146</x:v>
       </x:c>
       <x:c r="D140" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E140" s="0" t="n">
-        <x:v>435200</x:v>
+        <x:v>115600</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:5">
       <x:c r="A141" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B141" s="0" t="n">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="C141" s="0" t="s">
         <x:v>147</x:v>
       </x:c>
       <x:c r="D141" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E141" s="0" t="n">
-        <x:v>68000</x:v>
+        <x:v>476000</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:5">
       <x:c r="A142" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B142" s="0" t="n">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="C142" s="0" t="s">
         <x:v>148</x:v>
       </x:c>
       <x:c r="D142" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E142" s="0" t="n">
-        <x:v>101500</x:v>
+        <x:v>68000</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:5">
       <x:c r="A143" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B143" s="0" t="n">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="C143" s="0" t="s">
         <x:v>149</x:v>
       </x:c>
       <x:c r="D143" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E143" s="0" t="n">
-        <x:v>108000</x:v>
+        <x:v>130500</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:5">
       <x:c r="A144" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B144" s="0" t="n">
-        <x:v>348</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="C144" s="0" t="s">
         <x:v>150</x:v>
       </x:c>
       <x:c r="D144" s="0" t="n">
-        <x:v>74</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E144" s="0" t="n">
-        <x:v>300500</x:v>
+        <x:v>112000</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:5">
       <x:c r="A145" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B145" s="0" t="n">
-        <x:v>349</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="C145" s="0" t="s">
         <x:v>151</x:v>
       </x:c>
       <x:c r="D145" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E145" s="0" t="n">
-        <x:v>12000</x:v>
+        <x:v>381500</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:5">
       <x:c r="A146" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B146" s="0" t="n">
-        <x:v>351</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="C146" s="0" t="s">
         <x:v>152</x:v>
       </x:c>
       <x:c r="D146" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E146" s="0" t="n">
-        <x:v>156500</x:v>
+        <x:v>12000</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:5">
       <x:c r="A147" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B147" s="0" t="n">
-        <x:v>400</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="C147" s="0" t="s">
         <x:v>153</x:v>
       </x:c>
       <x:c r="D147" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E147" s="0" t="n">
-        <x:v>29000</x:v>
+        <x:v>200500</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:5">
       <x:c r="A148" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B148" s="0" t="n">
-        <x:v>402</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="C148" s="0" t="s">
         <x:v>154</x:v>
       </x:c>
       <x:c r="D148" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E148" s="0" t="n">
-        <x:v>35500</x:v>
+        <x:v>29000</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:5">
       <x:c r="A149" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B149" s="0" t="n">
-        <x:v>421</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="C149" s="0" t="s">
         <x:v>155</x:v>
       </x:c>
       <x:c r="D149" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E149" s="0" t="n">
-        <x:v>24000</x:v>
+        <x:v>35500</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:5">
       <x:c r="A150" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B150" s="0" t="n">
-        <x:v>503</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="C150" s="0" t="s">
         <x:v>156</x:v>
       </x:c>
       <x:c r="D150" s="0" t="n">
-        <x:v>148</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E150" s="0" t="n">
-        <x:v>4254000</x:v>
+        <x:v>24000</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:5">
       <x:c r="A151" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B151" s="0" t="n">
-        <x:v>510</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="C151" s="0" t="s">
         <x:v>157</x:v>
       </x:c>
       <x:c r="D151" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E151" s="0" t="n">
-        <x:v>24900</x:v>
+        <x:v>4864000</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:5">
       <x:c r="A152" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B152" s="0" t="n">
-        <x:v>513</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="C152" s="0" t="s">
         <x:v>158</x:v>
       </x:c>
       <x:c r="D152" s="0" t="n">
-        <x:v>268</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E152" s="0" t="n">
-        <x:v>4069000</x:v>
+        <x:v>28800</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:5">
       <x:c r="A153" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B153" s="0" t="n">
-        <x:v>514</x:v>
+        <x:v>513</x:v>
       </x:c>
       <x:c r="C153" s="0" t="s">
         <x:v>159</x:v>
       </x:c>
       <x:c r="D153" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="E153" s="0" t="n">
-        <x:v>40500</x:v>
+        <x:v>4341000</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:5">
       <x:c r="A154" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B154" s="0" t="n">
-        <x:v>516</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="C154" s="0" t="s">
         <x:v>160</x:v>
       </x:c>
       <x:c r="D154" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E154" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>55500</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:5">
       <x:c r="A155" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B155" s="0" t="n">
-        <x:v>520</x:v>
+        <x:v>516</x:v>
       </x:c>
       <x:c r="C155" s="0" t="s">
         <x:v>161</x:v>
       </x:c>
       <x:c r="D155" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E155" s="0" t="n">
-        <x:v>49500</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:5">
       <x:c r="A156" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B156" s="0" t="n">
-        <x:v>524</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="C156" s="0" t="s">
         <x:v>162</x:v>
       </x:c>
       <x:c r="D156" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E156" s="0" t="n">
-        <x:v>855500</x:v>
+        <x:v>56000</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:5">
       <x:c r="A157" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B157" s="0" t="n">
-        <x:v>525</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="C157" s="0" t="s">
         <x:v>163</x:v>
       </x:c>
       <x:c r="D157" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E157" s="0" t="n">
-        <x:v>408500</x:v>
+        <x:v>1135500</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:5">
       <x:c r="A158" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B158" s="0" t="n">
-        <x:v>543</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="C158" s="0" t="s">
         <x:v>164</x:v>
       </x:c>
       <x:c r="D158" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E158" s="0" t="n">
-        <x:v>430000</x:v>
+        <x:v>408500</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:5">
       <x:c r="A159" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B159" s="0" t="n">
-        <x:v>563</x:v>
+        <x:v>543</x:v>
       </x:c>
       <x:c r="C159" s="0" t="s">
         <x:v>165</x:v>
       </x:c>
       <x:c r="D159" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E159" s="0" t="n">
-        <x:v>143000</x:v>
+        <x:v>468000</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:5">
       <x:c r="A160" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B160" s="0" t="n">
-        <x:v>564</x:v>
+        <x:v>563</x:v>
       </x:c>
       <x:c r="C160" s="0" t="s">
         <x:v>166</x:v>
       </x:c>
       <x:c r="D160" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E160" s="0" t="n">
-        <x:v>37600</x:v>
+        <x:v>143000</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:5">
       <x:c r="A161" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B161" s="0" t="n">
-        <x:v>630</x:v>
+        <x:v>564</x:v>
       </x:c>
       <x:c r="C161" s="0" t="s">
         <x:v>167</x:v>
       </x:c>
       <x:c r="D161" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E161" s="0" t="n">
-        <x:v>399000</x:v>
+        <x:v>47000</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:5">
       <x:c r="A162" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B162" s="0" t="n">
-        <x:v>656</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="C162" s="0" t="s">
         <x:v>168</x:v>
       </x:c>
       <x:c r="D162" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E162" s="0" t="n">
-        <x:v>36000</x:v>
+        <x:v>436000</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:5">
       <x:c r="A163" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B163" s="0" t="n">
-        <x:v>664</x:v>
+        <x:v>656</x:v>
       </x:c>
       <x:c r="C163" s="0" t="s">
         <x:v>169</x:v>
@@ -3902,117 +3905,117 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E163" s="0" t="n">
-        <x:v>39000</x:v>
+        <x:v>36000</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:5">
       <x:c r="A164" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B164" s="0" t="n">
-        <x:v>666</x:v>
+        <x:v>664</x:v>
       </x:c>
       <x:c r="C164" s="0" t="s">
         <x:v>170</x:v>
       </x:c>
       <x:c r="D164" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E164" s="0" t="n">
-        <x:v>148000</x:v>
+        <x:v>73000</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:5">
       <x:c r="A165" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B165" s="0" t="n">
-        <x:v>670</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="C165" s="0" t="s">
         <x:v>171</x:v>
       </x:c>
       <x:c r="D165" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E165" s="0" t="n">
-        <x:v>815500</x:v>
+        <x:v>166000</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:5">
       <x:c r="A166" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B166" s="0" t="n">
-        <x:v>671</x:v>
+        <x:v>670</x:v>
       </x:c>
       <x:c r="C166" s="0" t="s">
         <x:v>172</x:v>
       </x:c>
       <x:c r="D166" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E166" s="0" t="n">
-        <x:v>330500</x:v>
+        <x:v>852500</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:5">
       <x:c r="A167" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B167" s="0" t="n">
-        <x:v>672</x:v>
+        <x:v>671</x:v>
       </x:c>
       <x:c r="C167" s="0" t="s">
         <x:v>173</x:v>
       </x:c>
       <x:c r="D167" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E167" s="0" t="n">
-        <x:v>231500</x:v>
+        <x:v>381500</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:5">
       <x:c r="A168" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B168" s="0" t="n">
-        <x:v>673</x:v>
+        <x:v>672</x:v>
       </x:c>
       <x:c r="C168" s="0" t="s">
         <x:v>174</x:v>
       </x:c>
       <x:c r="D168" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E168" s="0" t="n">
-        <x:v>100500</x:v>
+        <x:v>248500</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:5">
       <x:c r="A169" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B169" s="0" t="n">
-        <x:v>674</x:v>
+        <x:v>673</x:v>
       </x:c>
       <x:c r="C169" s="0" t="s">
         <x:v>175</x:v>
       </x:c>
       <x:c r="D169" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E169" s="0" t="n">
-        <x:v>133500</x:v>
+        <x:v>100500</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:5">
       <x:c r="A170" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B170" s="0" t="n">
-        <x:v>675</x:v>
+        <x:v>674</x:v>
       </x:c>
       <x:c r="C170" s="0" t="s">
         <x:v>176</x:v>
@@ -4021,32 +4024,32 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E170" s="0" t="n">
-        <x:v>171000</x:v>
+        <x:v>172500</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:5">
       <x:c r="A171" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B171" s="0" t="n">
-        <x:v>680</x:v>
+        <x:v>675</x:v>
       </x:c>
       <x:c r="C171" s="0" t="s">
         <x:v>177</x:v>
       </x:c>
       <x:c r="D171" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E171" s="0" t="n">
-        <x:v>14800</x:v>
+        <x:v>171000</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:5">
       <x:c r="A172" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B172" s="0" t="n">
-        <x:v>681</x:v>
+        <x:v>680</x:v>
       </x:c>
       <x:c r="C172" s="0" t="s">
         <x:v>178</x:v>
@@ -4055,83 +4058,83 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E172" s="0" t="n">
-        <x:v>17000</x:v>
+        <x:v>14800</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:5">
       <x:c r="A173" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B173" s="0" t="n">
-        <x:v>684</x:v>
+        <x:v>681</x:v>
       </x:c>
       <x:c r="C173" s="0" t="s">
         <x:v>179</x:v>
       </x:c>
       <x:c r="D173" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E173" s="0" t="n">
-        <x:v>17500</x:v>
+        <x:v>17000</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:5">
       <x:c r="A174" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B174" s="0" t="n">
-        <x:v>701</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="C174" s="0" t="s">
         <x:v>180</x:v>
       </x:c>
       <x:c r="D174" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E174" s="0" t="n">
-        <x:v>160000</x:v>
+        <x:v>37000</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:5">
       <x:c r="A175" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B175" s="0" t="n">
-        <x:v>702</x:v>
+        <x:v>701</x:v>
       </x:c>
       <x:c r="C175" s="0" t="s">
         <x:v>181</x:v>
       </x:c>
       <x:c r="D175" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E175" s="0" t="n">
-        <x:v>24600</x:v>
+        <x:v>200000</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:5">
       <x:c r="A176" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B176" s="0" t="n">
-        <x:v>811</x:v>
+        <x:v>702</x:v>
       </x:c>
       <x:c r="C176" s="0" t="s">
         <x:v>182</x:v>
       </x:c>
       <x:c r="D176" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E176" s="0" t="n">
-        <x:v>4000</x:v>
+        <x:v>38400</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:5">
       <x:c r="A177" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B177" s="0" t="n">
-        <x:v>823</x:v>
+        <x:v>811</x:v>
       </x:c>
       <x:c r="C177" s="0" t="s">
         <x:v>183</x:v>
@@ -4140,15 +4143,15 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E177" s="0" t="n">
-        <x:v>4900</x:v>
+        <x:v>4000</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:5">
       <x:c r="A178" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B178" s="0" t="n">
-        <x:v>891</x:v>
+        <x:v>823</x:v>
       </x:c>
       <x:c r="C178" s="0" t="s">
         <x:v>184</x:v>
@@ -4157,134 +4160,134 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E178" s="0" t="n">
-        <x:v>33000</x:v>
+        <x:v>10400</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:5">
       <x:c r="A179" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B179" s="0" t="n">
-        <x:v>903</x:v>
+        <x:v>891</x:v>
       </x:c>
       <x:c r="C179" s="0" t="s">
         <x:v>185</x:v>
       </x:c>
       <x:c r="D179" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E179" s="0" t="n">
-        <x:v>433400</x:v>
+        <x:v>33000</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:5">
       <x:c r="A180" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B180" s="0" t="n">
-        <x:v>906</x:v>
+        <x:v>903</x:v>
       </x:c>
       <x:c r="C180" s="0" t="s">
         <x:v>186</x:v>
       </x:c>
       <x:c r="D180" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E180" s="0" t="n">
-        <x:v>51000</x:v>
+        <x:v>569100</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:5">
       <x:c r="A181" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B181" s="0" t="n">
-        <x:v>963</x:v>
+        <x:v>906</x:v>
       </x:c>
       <x:c r="C181" s="0" t="s">
         <x:v>187</x:v>
       </x:c>
       <x:c r="D181" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E181" s="0" t="n">
-        <x:v>9800</x:v>
+        <x:v>51000</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:5">
       <x:c r="A182" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B182" s="0" t="n">
-        <x:v>994</x:v>
+        <x:v>963</x:v>
       </x:c>
       <x:c r="C182" s="0" t="s">
         <x:v>188</x:v>
       </x:c>
       <x:c r="D182" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E182" s="0" t="n">
-        <x:v>42000</x:v>
+        <x:v>9800</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:5">
       <x:c r="A183" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B183" s="0" t="n">
-        <x:v>995</x:v>
+        <x:v>994</x:v>
       </x:c>
       <x:c r="C183" s="0" t="s">
         <x:v>189</x:v>
       </x:c>
       <x:c r="D183" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E183" s="0" t="n">
-        <x:v>223500</x:v>
+        <x:v>59000</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:5">
       <x:c r="A184" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B184" s="0" t="n">
-        <x:v>1577</x:v>
+        <x:v>995</x:v>
       </x:c>
       <x:c r="C184" s="0" t="s">
         <x:v>190</x:v>
       </x:c>
       <x:c r="D184" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E184" s="0" t="n">
-        <x:v>192500</x:v>
+        <x:v>249500</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:5">
       <x:c r="A185" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B185" s="0" t="n">
-        <x:v>4645</x:v>
+        <x:v>1577</x:v>
       </x:c>
       <x:c r="C185" s="0" t="s">
         <x:v>191</x:v>
       </x:c>
       <x:c r="D185" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E185" s="0" t="n">
-        <x:v>10000</x:v>
+        <x:v>231500</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:5">
       <x:c r="A186" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B186" s="0" t="n">
-        <x:v>5404</x:v>
+        <x:v>4645</x:v>
       </x:c>
       <x:c r="C186" s="0" t="s">
         <x:v>192</x:v>
@@ -4293,882 +4296,882 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E186" s="0" t="n">
-        <x:v>79500</x:v>
+        <x:v>15000</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:5">
       <x:c r="A187" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B187" s="0" t="n">
-        <x:v>5442</x:v>
+        <x:v>5404</x:v>
       </x:c>
       <x:c r="C187" s="0" t="s">
         <x:v>193</x:v>
       </x:c>
       <x:c r="D187" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E187" s="0" t="n">
-        <x:v>289000</x:v>
+        <x:v>79500</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:5">
       <x:c r="A188" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B188" s="0" t="n">
-        <x:v>6587</x:v>
+        <x:v>5442</x:v>
       </x:c>
       <x:c r="C188" s="0" t="s">
         <x:v>194</x:v>
       </x:c>
       <x:c r="D188" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E188" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>289000</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:5">
       <x:c r="A189" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B189" s="0" t="n">
-        <x:v>9754</x:v>
+        <x:v>6587</x:v>
       </x:c>
       <x:c r="C189" s="0" t="s">
         <x:v>195</x:v>
       </x:c>
       <x:c r="D189" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E189" s="0" t="n">
-        <x:v>238000</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:5">
       <x:c r="A190" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B190" s="0" t="n">
-        <x:v>9755</x:v>
+        <x:v>9754</x:v>
       </x:c>
       <x:c r="C190" s="0" t="s">
         <x:v>196</x:v>
       </x:c>
       <x:c r="D190" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E190" s="0" t="n">
-        <x:v>154000</x:v>
+        <x:v>266000</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:5">
       <x:c r="A191" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B191" s="0" t="n">
-        <x:v>9756</x:v>
+        <x:v>9755</x:v>
       </x:c>
       <x:c r="C191" s="0" t="s">
         <x:v>197</x:v>
       </x:c>
       <x:c r="D191" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E191" s="0" t="n">
-        <x:v>29000</x:v>
+        <x:v>168000</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:5">
       <x:c r="A192" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B192" s="0" t="n">
-        <x:v>35485</x:v>
+        <x:v>9756</x:v>
       </x:c>
       <x:c r="C192" s="0" t="s">
         <x:v>198</x:v>
       </x:c>
       <x:c r="D192" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E192" s="0" t="n">
-        <x:v>16000</x:v>
+        <x:v>58000</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:5">
       <x:c r="A193" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B193" s="0" t="n">
+        <x:v>35485</x:v>
+      </x:c>
+      <x:c r="C193" s="0" t="s">
         <x:v>199</x:v>
       </x:c>
-      <x:c r="B193" s="0" t="n">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C193" s="0" t="s">
-        <x:v>200</x:v>
-      </x:c>
       <x:c r="D193" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E193" s="0" t="n">
-        <x:v>144500</x:v>
+        <x:v>16000</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:5">
       <x:c r="A194" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B194" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C194" s="0" t="s">
         <x:v>201</x:v>
       </x:c>
       <x:c r="D194" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E194" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>153000</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:5">
       <x:c r="A195" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B195" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C195" s="0" t="s">
         <x:v>202</x:v>
       </x:c>
       <x:c r="D195" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E195" s="0" t="n">
-        <x:v>187000</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:5">
       <x:c r="A196" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B196" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C196" s="0" t="s">
         <x:v>203</x:v>
       </x:c>
       <x:c r="D196" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E196" s="0" t="n">
-        <x:v>8500</x:v>
+        <x:v>203500</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:5">
       <x:c r="A197" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B197" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C197" s="0" t="s">
         <x:v>204</x:v>
       </x:c>
       <x:c r="D197" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E197" s="0" t="n">
-        <x:v>58900</x:v>
+        <x:v>8500</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:5">
       <x:c r="A198" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B198" s="0" t="n">
-        <x:v>88</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C198" s="0" t="s">
         <x:v>205</x:v>
       </x:c>
       <x:c r="D198" s="0" t="n">
-        <x:v>131</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E198" s="0" t="n">
-        <x:v>413700</x:v>
+        <x:v>98700</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:5">
       <x:c r="A199" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B199" s="0" t="n">
-        <x:v>106</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C199" s="0" t="s">
         <x:v>206</x:v>
       </x:c>
       <x:c r="D199" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E199" s="0" t="n">
-        <x:v>70500</x:v>
+        <x:v>413700</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:5">
       <x:c r="A200" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B200" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C200" s="0" t="s">
         <x:v>207</x:v>
       </x:c>
       <x:c r="D200" s="0" t="n">
-        <x:v>155</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E200" s="0" t="n">
-        <x:v>864900</x:v>
+        <x:v>70500</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:5">
       <x:c r="A201" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B201" s="0" t="n">
-        <x:v>201</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="C201" s="0" t="s">
         <x:v>208</x:v>
       </x:c>
       <x:c r="D201" s="0" t="n">
-        <x:v>93</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E201" s="0" t="n">
-        <x:v>515900</x:v>
+        <x:v>977000</x:v>
       </x:c>
     </x:row>
     <x:row r="202" spans="1:5">
       <x:c r="A202" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B202" s="0" t="n">
-        <x:v>202</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="C202" s="0" t="s">
         <x:v>209</x:v>
       </x:c>
       <x:c r="D202" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E202" s="0" t="n">
-        <x:v>548500</x:v>
+        <x:v>610300</x:v>
       </x:c>
     </x:row>
     <x:row r="203" spans="1:5">
       <x:c r="A203" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B203" s="0" t="n">
-        <x:v>203</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="C203" s="0" t="s">
         <x:v>210</x:v>
       </x:c>
       <x:c r="D203" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E203" s="0" t="n">
-        <x:v>227000</x:v>
+        <x:v>598000</x:v>
       </x:c>
     </x:row>
     <x:row r="204" spans="1:5">
       <x:c r="A204" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B204" s="0" t="n">
-        <x:v>204</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="C204" s="0" t="s">
         <x:v>211</x:v>
       </x:c>
       <x:c r="D204" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E204" s="0" t="n">
-        <x:v>369000</x:v>
+        <x:v>262000</x:v>
       </x:c>
     </x:row>
     <x:row r="205" spans="1:5">
       <x:c r="A205" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B205" s="0" t="n">
-        <x:v>205</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="C205" s="0" t="s">
         <x:v>212</x:v>
       </x:c>
       <x:c r="D205" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E205" s="0" t="n">
-        <x:v>1007000</x:v>
+        <x:v>564000</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="1:5">
       <x:c r="A206" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B206" s="0" t="n">
-        <x:v>206</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="C206" s="0" t="s">
         <x:v>213</x:v>
       </x:c>
       <x:c r="D206" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E206" s="0" t="n">
-        <x:v>366000</x:v>
+        <x:v>1202000</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="1:5">
       <x:c r="A207" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B207" s="0" t="n">
-        <x:v>208</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="C207" s="0" t="s">
         <x:v>214</x:v>
       </x:c>
       <x:c r="D207" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E207" s="0" t="n">
-        <x:v>147500</x:v>
+        <x:v>398000</x:v>
       </x:c>
     </x:row>
     <x:row r="208" spans="1:5">
       <x:c r="A208" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B208" s="0" t="n">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="C208" s="0" t="s">
         <x:v>215</x:v>
       </x:c>
       <x:c r="D208" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E208" s="0" t="n">
-        <x:v>118000</x:v>
+        <x:v>236000</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:5">
       <x:c r="A209" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B209" s="0" t="n">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C209" s="0" t="s">
         <x:v>216</x:v>
       </x:c>
       <x:c r="D209" s="0" t="n">
-        <x:v>255</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E209" s="0" t="n">
-        <x:v>8955000</x:v>
+        <x:v>206500</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:5">
       <x:c r="A210" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B210" s="0" t="n">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="C210" s="0" t="s">
         <x:v>217</x:v>
       </x:c>
       <x:c r="D210" s="0" t="n">
-        <x:v>103</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="E210" s="0" t="n">
-        <x:v>3695000</x:v>
+        <x:v>10361000</x:v>
       </x:c>
     </x:row>
     <x:row r="211" spans="1:5">
       <x:c r="A211" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B211" s="0" t="n">
-        <x:v>212</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C211" s="0" t="s">
         <x:v>218</x:v>
       </x:c>
       <x:c r="D211" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E211" s="0" t="n">
-        <x:v>134000</x:v>
+        <x:v>4241000</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:5">
       <x:c r="A212" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B212" s="0" t="n">
-        <x:v>213</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C212" s="0" t="s">
         <x:v>219</x:v>
       </x:c>
       <x:c r="D212" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E212" s="0" t="n">
-        <x:v>712000</x:v>
+        <x:v>134000</x:v>
       </x:c>
     </x:row>
     <x:row r="213" spans="1:5">
       <x:c r="A213" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B213" s="0" t="n">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C213" s="0" t="s">
         <x:v>220</x:v>
       </x:c>
       <x:c r="D213" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E213" s="0" t="n">
-        <x:v>681500</x:v>
+        <x:v>748000</x:v>
       </x:c>
     </x:row>
     <x:row r="214" spans="1:5">
       <x:c r="A214" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B214" s="0" t="n">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="C214" s="0" t="s">
         <x:v>221</x:v>
       </x:c>
       <x:c r="D214" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E214" s="0" t="n">
-        <x:v>132000</x:v>
+        <x:v>724500</x:v>
       </x:c>
     </x:row>
     <x:row r="215" spans="1:5">
       <x:c r="A215" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B215" s="0" t="n">
-        <x:v>218</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C215" s="0" t="s">
         <x:v>222</x:v>
       </x:c>
       <x:c r="D215" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E215" s="0" t="n">
-        <x:v>1835000</x:v>
+        <x:v>132000</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:5">
       <x:c r="A216" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B216" s="0" t="n">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="C216" s="0" t="s">
         <x:v>223</x:v>
       </x:c>
       <x:c r="D216" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E216" s="0" t="n">
-        <x:v>441000</x:v>
+        <x:v>1992500</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="1:5">
       <x:c r="A217" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B217" s="0" t="n">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="C217" s="0" t="s">
         <x:v>224</x:v>
       </x:c>
       <x:c r="D217" s="0" t="n">
-        <x:v>89</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E217" s="0" t="n">
-        <x:v>6201500</x:v>
+        <x:v>441000</x:v>
       </x:c>
     </x:row>
     <x:row r="218" spans="1:5">
       <x:c r="A218" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B218" s="0" t="n">
-        <x:v>221</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C218" s="0" t="s">
         <x:v>225</x:v>
       </x:c>
       <x:c r="D218" s="0" t="n">
-        <x:v>139</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E218" s="0" t="n">
-        <x:v>2535000</x:v>
+        <x:v>7259000</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:5">
       <x:c r="A219" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B219" s="0" t="n">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="C219" s="0" t="s">
         <x:v>226</x:v>
       </x:c>
       <x:c r="D219" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E219" s="0" t="n">
-        <x:v>1548000</x:v>
+        <x:v>2691000</x:v>
       </x:c>
     </x:row>
     <x:row r="220" spans="1:5">
       <x:c r="A220" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B220" s="0" t="n">
-        <x:v>224</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="C220" s="0" t="s">
         <x:v>227</x:v>
       </x:c>
       <x:c r="D220" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E220" s="0" t="n">
-        <x:v>48000</x:v>
+        <x:v>1656000</x:v>
       </x:c>
     </x:row>
     <x:row r="221" spans="1:5">
       <x:c r="A221" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B221" s="0" t="n">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C221" s="0" t="s">
         <x:v>228</x:v>
       </x:c>
       <x:c r="D221" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E221" s="0" t="n">
-        <x:v>85000</x:v>
+        <x:v>64000</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:5">
       <x:c r="A222" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B222" s="0" t="n">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="C222" s="0" t="s">
         <x:v>229</x:v>
       </x:c>
       <x:c r="D222" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E222" s="0" t="n">
-        <x:v>40000</x:v>
+        <x:v>102000</x:v>
       </x:c>
     </x:row>
     <x:row r="223" spans="1:5">
       <x:c r="A223" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B223" s="0" t="n">
-        <x:v>228</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="C223" s="0" t="s">
         <x:v>230</x:v>
       </x:c>
       <x:c r="D223" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E223" s="0" t="n">
-        <x:v>116000</x:v>
+        <x:v>40000</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="1:5">
       <x:c r="A224" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B224" s="0" t="n">
-        <x:v>246</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="C224" s="0" t="s">
         <x:v>231</x:v>
       </x:c>
       <x:c r="D224" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E224" s="0" t="n">
-        <x:v>1027000</x:v>
+        <x:v>145500</x:v>
       </x:c>
     </x:row>
     <x:row r="225" spans="1:5">
       <x:c r="A225" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B225" s="0" t="n">
-        <x:v>261</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="C225" s="0" t="s">
         <x:v>232</x:v>
       </x:c>
       <x:c r="D225" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E225" s="0" t="n">
-        <x:v>166000</x:v>
+        <x:v>1166500</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:5">
       <x:c r="A226" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B226" s="0" t="n">
-        <x:v>369</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="C226" s="0" t="s">
         <x:v>233</x:v>
       </x:c>
       <x:c r="D226" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E226" s="0" t="n">
-        <x:v>32000</x:v>
+        <x:v>220000</x:v>
       </x:c>
     </x:row>
     <x:row r="227" spans="1:5">
       <x:c r="A227" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B227" s="0" t="n">
-        <x:v>505</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="C227" s="0" t="s">
         <x:v>234</x:v>
       </x:c>
       <x:c r="D227" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E227" s="0" t="n">
-        <x:v>130000</x:v>
+        <x:v>36000</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:5">
       <x:c r="A228" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B228" s="0" t="n">
-        <x:v>550</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="C228" s="0" t="s">
         <x:v>235</x:v>
       </x:c>
       <x:c r="D228" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E228" s="0" t="n">
-        <x:v>1194500</x:v>
+        <x:v>130000</x:v>
       </x:c>
     </x:row>
     <x:row r="229" spans="1:5">
       <x:c r="A229" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B229" s="0" t="n">
-        <x:v>602</x:v>
+        <x:v>550</x:v>
       </x:c>
       <x:c r="C229" s="0" t="s">
         <x:v>236</x:v>
       </x:c>
       <x:c r="D229" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E229" s="0" t="n">
-        <x:v>357000</x:v>
+        <x:v>1272000</x:v>
       </x:c>
     </x:row>
     <x:row r="230" spans="1:5">
       <x:c r="A230" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B230" s="0" t="n">
-        <x:v>604</x:v>
+        <x:v>602</x:v>
       </x:c>
       <x:c r="C230" s="0" t="s">
         <x:v>237</x:v>
       </x:c>
       <x:c r="D230" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E230" s="0" t="n">
-        <x:v>544000</x:v>
+        <x:v>357000</x:v>
       </x:c>
     </x:row>
     <x:row r="231" spans="1:5">
       <x:c r="A231" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B231" s="0" t="n">
-        <x:v>645</x:v>
+        <x:v>604</x:v>
       </x:c>
       <x:c r="C231" s="0" t="s">
         <x:v>238</x:v>
       </x:c>
       <x:c r="D231" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E231" s="0" t="n">
-        <x:v>5000</x:v>
+        <x:v>544000</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:5">
       <x:c r="A232" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B232" s="0" t="n">
-        <x:v>682</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="C232" s="0" t="s">
         <x:v>239</x:v>
       </x:c>
       <x:c r="D232" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E232" s="0" t="n">
-        <x:v>103500</x:v>
+        <x:v>7500</x:v>
       </x:c>
     </x:row>
     <x:row r="233" spans="1:5">
       <x:c r="A233" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B233" s="0" t="n">
-        <x:v>690</x:v>
+        <x:v>682</x:v>
       </x:c>
       <x:c r="C233" s="0" t="s">
         <x:v>240</x:v>
       </x:c>
       <x:c r="D233" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E233" s="0" t="n">
-        <x:v>95000</x:v>
+        <x:v>159000</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:5">
       <x:c r="A234" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B234" s="0" t="n">
-        <x:v>800</x:v>
+        <x:v>690</x:v>
       </x:c>
       <x:c r="C234" s="0" t="s">
         <x:v>241</x:v>
       </x:c>
       <x:c r="D234" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E234" s="0" t="n">
-        <x:v>58000</x:v>
+        <x:v>95000</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:5">
       <x:c r="A235" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B235" s="0" t="n">
-        <x:v>900</x:v>
+        <x:v>800</x:v>
       </x:c>
       <x:c r="C235" s="0" t="s">
         <x:v>242</x:v>
       </x:c>
       <x:c r="D235" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E235" s="0" t="n">
-        <x:v>18000</x:v>
+        <x:v>58000</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="1:5">
       <x:c r="A236" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B236" s="0" t="n">
-        <x:v>904</x:v>
+        <x:v>900</x:v>
       </x:c>
       <x:c r="C236" s="0" t="s">
         <x:v>243</x:v>
       </x:c>
       <x:c r="D236" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E236" s="0" t="n">
-        <x:v>912500</x:v>
+        <x:v>18000</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="1:5">
       <x:c r="A237" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B237" s="0" t="n">
-        <x:v>905</x:v>
+        <x:v>904</x:v>
       </x:c>
       <x:c r="C237" s="0" t="s">
         <x:v>244</x:v>
       </x:c>
       <x:c r="D237" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E237" s="0" t="n">
-        <x:v>5500</x:v>
+        <x:v>912500</x:v>
       </x:c>
     </x:row>
     <x:row r="238" spans="1:5">
       <x:c r="A238" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B238" s="0" t="n">
-        <x:v>1900</x:v>
+        <x:v>905</x:v>
       </x:c>
       <x:c r="C238" s="0" t="s">
         <x:v>245</x:v>
@@ -5177,15 +5180,15 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E238" s="0" t="n">
-        <x:v>14000</x:v>
+        <x:v>11400</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:5">
       <x:c r="A239" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B239" s="0" t="n">
-        <x:v>1901</x:v>
+        <x:v>1900</x:v>
       </x:c>
       <x:c r="C239" s="0" t="s">
         <x:v>246</x:v>
@@ -5194,194 +5197,211 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E239" s="0" t="n">
-        <x:v>18000</x:v>
+        <x:v>14000</x:v>
       </x:c>
     </x:row>
     <x:row r="240" spans="1:5">
       <x:c r="A240" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B240" s="0" t="n">
-        <x:v>521476</x:v>
+        <x:v>1901</x:v>
       </x:c>
       <x:c r="C240" s="0" t="s">
         <x:v>247</x:v>
       </x:c>
       <x:c r="D240" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E240" s="0" t="n">
-        <x:v>27000</x:v>
+        <x:v>18000</x:v>
       </x:c>
     </x:row>
     <x:row r="241" spans="1:5">
       <x:c r="A241" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B241" s="0" t="n">
-        <x:v>521477</x:v>
+        <x:v>521476</x:v>
       </x:c>
       <x:c r="C241" s="0" t="s">
         <x:v>248</x:v>
       </x:c>
       <x:c r="D241" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E241" s="0" t="n">
-        <x:v>106500</x:v>
+        <x:v>54000</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:5">
       <x:c r="A242" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B242" s="0" t="n">
-        <x:v>521480</x:v>
+        <x:v>521477</x:v>
       </x:c>
       <x:c r="C242" s="0" t="s">
         <x:v>249</x:v>
       </x:c>
       <x:c r="D242" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E242" s="0" t="n">
-        <x:v>68000</x:v>
+        <x:v>133500</x:v>
       </x:c>
     </x:row>
     <x:row r="243" spans="1:5">
       <x:c r="A243" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B243" s="0" t="n">
-        <x:v>521495</x:v>
+        <x:v>521480</x:v>
       </x:c>
       <x:c r="C243" s="0" t="s">
         <x:v>250</x:v>
       </x:c>
       <x:c r="D243" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E243" s="0" t="n">
-        <x:v>10000</x:v>
+        <x:v>68000</x:v>
       </x:c>
     </x:row>
     <x:row r="244" spans="1:5">
       <x:c r="A244" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B244" s="0" t="n">
-        <x:v>521499</x:v>
+        <x:v>521495</x:v>
       </x:c>
       <x:c r="C244" s="0" t="s">
         <x:v>251</x:v>
       </x:c>
       <x:c r="D244" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E244" s="0" t="n">
-        <x:v>8000</x:v>
+        <x:v>10000</x:v>
       </x:c>
     </x:row>
     <x:row r="245" spans="1:5">
       <x:c r="A245" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B245" s="0" t="n">
-        <x:v>521506</x:v>
+        <x:v>521499</x:v>
       </x:c>
       <x:c r="C245" s="0" t="s">
         <x:v>252</x:v>
       </x:c>
       <x:c r="D245" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E245" s="0" t="n">
-        <x:v>15000</x:v>
+        <x:v>8000</x:v>
       </x:c>
     </x:row>
     <x:row r="246" spans="1:5">
       <x:c r="A246" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B246" s="0" t="n">
-        <x:v>521510</x:v>
+        <x:v>521506</x:v>
       </x:c>
       <x:c r="C246" s="0" t="s">
         <x:v>253</x:v>
       </x:c>
       <x:c r="D246" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E246" s="0" t="n">
-        <x:v>255000</x:v>
+        <x:v>79000</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:5">
       <x:c r="A247" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B247" s="0" t="n">
-        <x:v>521520</x:v>
+        <x:v>521510</x:v>
       </x:c>
       <x:c r="C247" s="0" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="D247" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E247" s="0" t="n">
-        <x:v>152000</x:v>
+        <x:v>255000</x:v>
       </x:c>
     </x:row>
     <x:row r="248" spans="1:5">
       <x:c r="A248" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="B248" s="0" t="n">
+        <x:v>521520</x:v>
+      </x:c>
+      <x:c r="C248" s="0" t="s">
         <x:v>255</x:v>
       </x:c>
-      <x:c r="B248" s="0" t="n">
-        <x:v>1902</x:v>
-      </x:c>
-      <x:c r="C248" s="0" t="s">
-        <x:v>256</x:v>
-      </x:c>
       <x:c r="D248" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E248" s="0" t="n">
-        <x:v>36000</x:v>
+        <x:v>190000</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:5">
       <x:c r="A249" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="B249" s="0" t="n">
+        <x:v>1902</x:v>
+      </x:c>
+      <x:c r="C249" s="0" t="s">
         <x:v>257</x:v>
       </x:c>
-      <x:c r="B249" s="0" t="n">
-        <x:v>9991</x:v>
-      </x:c>
-      <x:c r="C249" s="0" t="s">
-        <x:v>258</x:v>
-      </x:c>
       <x:c r="D249" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E249" s="0" t="n">
-        <x:v>1066000</x:v>
+        <x:v>36000</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="1:5">
       <x:c r="A250" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B250" s="0" t="n">
-        <x:v>999999</x:v>
+        <x:v>9991</x:v>
       </x:c>
       <x:c r="C250" s="0" t="s">
         <x:v>259</x:v>
       </x:c>
       <x:c r="D250" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E250" s="0" t="n">
-        <x:v>-559100</x:v>
+        <x:v>1069500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="251" spans="1:5">
+      <x:c r="A251" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="B251" s="0" t="n">
+        <x:v>999999</x:v>
+      </x:c>
+      <x:c r="C251" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="D251" s="0" t="n">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E251" s="0" t="n">
+        <x:v>-609440</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
